--- a/biology/Botanique/Georges_Le_Monnier/Georges_Le_Monnier.xlsx
+++ b/biology/Botanique/Georges_Le_Monnier/Georges_Le_Monnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Le Monnier, né à Bordeaux le 4 mars 1843 et mort à Nancy le 10 juin 1931[1], est un scientifique et un institutionnel[pas clair] nancéien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Le Monnier, né à Bordeaux le 4 mars 1843 et mort à Nancy le 10 juin 1931, est un scientifique et un institutionnel[pas clair] nancéien.
 </t>
         </is>
       </c>
@@ -511,16 +523,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges Le Monnier fut élève de l'École normale supérieure (1863), agrégé de physique (1866), docteur ès-science (1873), professeur au lycée de Niort (1866), préparateur à l'École normale supérieure (1869), professeur de physique au lycée de Pau (1874), chargé de cours de botanique et de zoologie à la faculté des sciences de Besançon (1874), chargé de cours de botanique à la faculté des sciences de Nancy (1877), puis enfin professeur (1877) et professeur honoraire (1912)
-[2],[3].
-Adjoint à la mairie de Nancy de 1892 à 1900, Georges Le Monnier fit ouvrir le premier lycée de jeunes filles de Nancy et un des premiers en France[4].
-Il fut l'initiateur de l'Institut sérothérapique de l'Est, dont il fut le président[5],[6]. Ce fut le premier titulaire de la Chaire de botanique de la faculté des Sciences de Nancy[2],[7],[note 1]. Georges Le Monnier s'occupa de près des questions sociales et de leurs enseignements tout au long de sa carrière[4].
-Il reçut pour l'ensemble de sa carrière la Légion d'honneur[8] mais la rendit par la suite. Il fut membre de l'Académie de Stanislas[9],[10].
-C'était un ami très proche d'Auguste Daum et d'Émile Gallé[4].
+,.
+Adjoint à la mairie de Nancy de 1892 à 1900, Georges Le Monnier fit ouvrir le premier lycée de jeunes filles de Nancy et un des premiers en France.
+Il fut l'initiateur de l'Institut sérothérapique de l'Est, dont il fut le président,. Ce fut le premier titulaire de la Chaire de botanique de la faculté des Sciences de Nancy[note 1]. Georges Le Monnier s'occupa de près des questions sociales et de leurs enseignements tout au long de sa carrière.
+Il reçut pour l'ensemble de sa carrière la Légion d'honneur mais la rendit par la suite. Il fut membre de l'Académie de Stanislas,.
+C'était un ami très proche d'Auguste Daum et d'Émile Gallé.
 Ce dernier écrivait dans un de ces carnets : « M. Le Monnier, professeur de botanique à la Faculté des sciences de Nancy, a donné en 1877 une conférence sur le mouvement darwinien à un public très divers, à la fois masculin et féminin. M. Le Monnier s’est imposé une tâche qui aurait été difficile pour tout autre que lui. En une heure de causerie, M. Le Monnier a réussi à faire connaître le grand mouvement darwinien à un public varié, sans que l’auditoire, si intelligent soit-il, n’éprouve de l’ennui ou de la fatigue. M. Le Monnier s’est acquitté de cette tâche avec une aisance, une légèreté et une grâce admirables. Le professeur a su rester scientifique et le conférencier charmer un public très divers. Ses dons de clarté, de simplicité,d’élégance, qui distinguent la parole du professeur, le conférencier les possédait au suprême degré. »
-Émile Friant a fait en 1898 un portrait de Georges Le Monnier[11],[12].
+Émile Friant a fait en 1898 un portrait de Georges Le Monnier,.
 </t>
         </is>
       </c>
@@ -549,7 +563,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Darwin, sa vie et son œuvre, Georges Le Monnier, Bibliothèque publique de Nancy, Discours prononcé à la rentrée solennelle des Facultés de Nancy le 28 novembre, 1882.
 Flore de Lorraine, D-A. Godron, publiée par Paul-Henri Fliche et Georges Le Monnier, N. Grosjean, Nancy, troisième édition, 1883.
@@ -583,9 +599,11 @@
           <t>Remarques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Le Monnier est le beau-père du médecin et philosophe Jacques Rennes, du Professeur Philibert Guinier et le grand-père du scientifique André Guinier[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Le Monnier est le beau-père du médecin et philosophe Jacques Rennes, du Professeur Philibert Guinier et le grand-père du scientifique André Guinier.
 </t>
         </is>
       </c>
